--- a/data-output-excel/data-output-example.xlsx
+++ b/data-output-excel/data-output-example.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,18 +427,59 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>GRIFFITH FOODS LIMITED</v>
+        <v>GRILLSPOT INC.</v>
       </c>
       <c r="B2" t="str">
         <v>Toronto</v>
       </c>
       <c r="C2" t="str">
+        <v>https://www.grillspot.ca/</v>
+      </c>
+      <c r="D2" t="str">
+        <v>grillspot.ca</v>
+      </c>
+      <c r="E2" t="str" xml:space="preserve">
+        <v xml:space="preserve">websales@grillspot.ca 
+info@grillspot.ca 
+</v>
+      </c>
+      <c r="F2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="G2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>GRIMCO CANADA, INC.</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://www.grimco.ca/?setContextLanguageCode=en-us</v>
+      </c>
+      <c r="D3" t="str">
+        <v>grimco.ca</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>GRIFFITH FOODS LIMITED</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="C4" t="str">
         <v>https://griffithfoods.com/</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D4" t="str">
         <v>griffithfoods.com</v>
       </c>
-      <c r="E2" t="str" xml:space="preserve">
+      <c r="E4" t="str" xml:space="preserve">
         <v xml:space="preserve">info@griffithfoods.com 
 jkanthak@griffithfoods.com 
 customculinaryeurope@griffithfoods.com 
@@ -451,7 +492,7 @@
 mmichals@griffithfoods.com 
 </v>
       </c>
-      <c r="F2" t="str" xml:space="preserve">
+      <c r="F4" t="str" xml:space="preserve">
         <v xml:space="preserve">
 henry lobo 
 ben griggs 
@@ -461,7 +502,7 @@
 mark michals 
 </v>
       </c>
-      <c r="G2" t="str" xml:space="preserve">
+      <c r="G4" t="str" xml:space="preserve">
         <v xml:space="preserve">
 machine operator 
 senior information technology consultant, ww supply chain systems 
@@ -472,185 +513,9 @@
 </v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>GRILLSPOT INC.</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Toronto</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://www.grillspot.ca/</v>
-      </c>
-      <c r="D3" t="str">
-        <v>grillspot.ca</v>
-      </c>
-      <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">websales@grillspot.ca 
-info@grillspot.ca 
-</v>
-      </c>
-      <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="G3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>GRIMCO CANADA, INC.</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Toronto</v>
-      </c>
-      <c r="C4" t="str">
-        <v>https://www.grimco.ca/?setContextLanguageCode=en-us</v>
-      </c>
-      <c r="D4" t="str">
-        <v>grimco.ca</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>GRIFFITH FOODS LIMITED</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Toronto</v>
-      </c>
-      <c r="C5" t="str">
-        <v>https://griffithfoods.com/</v>
-      </c>
-      <c r="D5" t="str">
-        <v>griffithfoods.com</v>
-      </c>
-      <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">info@griffithfoods.com 
-jkanthak@griffithfoods.com 
-customculinaryeurope@griffithfoods.com 
-com-comunicaciones@griffithfoods.com 
-hlobo@griffithfoods.com 
-bgriggs@griffithfoods.com 
-smathews@griffithfoods.com 
-kmaslanka@griffithfoods.com 
-dcrockett@griffithfoods.com 
-mmichals@griffithfoods.com 
-</v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-henry lobo 
-ben griggs 
-steven mathews 
-katie maslanka 
-david crockett 
-mark michals 
-</v>
-      </c>
-      <c r="G5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-machine operator 
-senior information technology consultant, ww supply chain systems 
-inspector 
-benefits and human resources information systems specialist 
-associate innovation scientist 
-supervisor of staff 
-</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>GRILLSPOT INC.</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Toronto</v>
-      </c>
-      <c r="C6" t="str">
-        <v>https://www.grillspot.ca/</v>
-      </c>
-      <c r="D6" t="str">
-        <v>grillspot.ca</v>
-      </c>
-      <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">websales@grillspot.ca 
-info@grillspot.ca 
-</v>
-      </c>
-      <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="G6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>GRIMCO CANADA, INC.</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Toronto</v>
-      </c>
-      <c r="C7" t="str">
-        <v>https://www.grimco.ca/?setContextLanguageCode=en-us</v>
-      </c>
-      <c r="D7" t="str">
-        <v>grimco.ca</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>GRIFFITH FOODS LIMITED</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Toronto</v>
-      </c>
-      <c r="C8" t="str">
-        <v>https://griffithfoods.com/</v>
-      </c>
-      <c r="D8" t="str">
-        <v>griffithfoods.com</v>
-      </c>
-      <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">info@griffithfoods.com 
-jkanthak@griffithfoods.com 
-customculinaryeurope@griffithfoods.com 
-com-comunicaciones@griffithfoods.com 
-hlobo@griffithfoods.com 
-bgriggs@griffithfoods.com 
-smathews@griffithfoods.com 
-kmaslanka@griffithfoods.com 
-dcrockett@griffithfoods.com 
-mmichals@griffithfoods.com 
-</v>
-      </c>
-      <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-henry lobo 
-ben griggs 
-steven mathews 
-katie maslanka 
-david crockett 
-mark michals 
-</v>
-      </c>
-      <c r="G8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-machine operator 
-senior information technology consultant, ww supply chain systems 
-inspector 
-benefits and human resources information systems specialist 
-associate innovation scientist 
-supervisor of staff 
-</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data-output-excel/data-output-example.xlsx
+++ b/data-output-excel/data-output-example.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,59 +427,18 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>GRILLSPOT INC.</v>
+        <v>GRIFFITH FOODS LIMITED</v>
       </c>
       <c r="B2" t="str">
         <v>Toronto</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.grillspot.ca/</v>
+        <v>https://griffithfoods.com/</v>
       </c>
       <c r="D2" t="str">
-        <v>grillspot.ca</v>
+        <v>griffithfoods.com</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">websales@grillspot.ca 
-info@grillspot.ca 
-</v>
-      </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="G2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>GRIMCO CANADA, INC.</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Toronto</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://www.grimco.ca/?setContextLanguageCode=en-us</v>
-      </c>
-      <c r="D3" t="str">
-        <v>grimco.ca</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>GRIFFITH FOODS LIMITED</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Toronto</v>
-      </c>
-      <c r="C4" t="str">
-        <v>https://griffithfoods.com/</v>
-      </c>
-      <c r="D4" t="str">
-        <v>griffithfoods.com</v>
-      </c>
-      <c r="E4" t="str" xml:space="preserve">
         <v xml:space="preserve">info@griffithfoods.com 
 jkanthak@griffithfoods.com 
 customculinaryeurope@griffithfoods.com 
@@ -492,7 +451,7 @@
 mmichals@griffithfoods.com 
 </v>
       </c>
-      <c r="F4" t="str" xml:space="preserve">
+      <c r="F2" t="str" xml:space="preserve">
         <v xml:space="preserve">
 henry lobo 
 ben griggs 
@@ -502,7 +461,7 @@
 mark michals 
 </v>
       </c>
-      <c r="G4" t="str" xml:space="preserve">
+      <c r="G2" t="str" xml:space="preserve">
         <v xml:space="preserve">
 machine operator 
 senior information technology consultant, ww supply chain systems 
@@ -513,9 +472,100 @@
 </v>
       </c>
     </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>GRILLSPOT INC.</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://www.grillspot.ca/</v>
+      </c>
+      <c r="D3" t="str">
+        <v>grillspot.ca</v>
+      </c>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">websales@grillspot.ca 
+info@grillspot.ca 
+</v>
+      </c>
+      <c r="F3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="G3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>GRIMCO CANADA, INC.</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://www.grimco.ca/?setContextLanguageCode=en-us</v>
+      </c>
+      <c r="D4" t="str">
+        <v>grimco.ca</v>
+      </c>
+      <c r="E4" t="str">
+        <v>not found</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>GRIFFITH FOODS LIMITED</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://griffithfoods.com/</v>
+      </c>
+      <c r="D5" t="str">
+        <v>griffithfoods.com</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">info@griffithfoods.com 
+jkanthak@griffithfoods.com 
+customculinaryeurope@griffithfoods.com 
+com-comunicaciones@griffithfoods.com 
+hlobo@griffithfoods.com 
+bgriggs@griffithfoods.com 
+smathews@griffithfoods.com 
+kmaslanka@griffithfoods.com 
+dcrockett@griffithfoods.com 
+mmichals@griffithfoods.com 
+</v>
+      </c>
+      <c r="F5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+henry lobo 
+ben griggs 
+steven mathews 
+katie maslanka 
+david crockett 
+mark michals 
+</v>
+      </c>
+      <c r="G5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+machine operator 
+senior information technology consultant, ww supply chain systems 
+inspector 
+benefits and human resources information systems specialist 
+associate innovation scientist 
+supervisor of staff 
+</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>